--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfsf14-Tnfrsf14.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfsf14-Tnfrsf14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -91,13 +97,7 @@
     <t>Tnfrsf14</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.02936066666666667</v>
+        <v>0.0390265</v>
       </c>
       <c r="H2">
-        <v>0.08808200000000001</v>
+        <v>0.078053</v>
       </c>
       <c r="I2">
-        <v>0.007183142571459352</v>
+        <v>0.001707596593400255</v>
       </c>
       <c r="J2">
-        <v>0.007183142571459351</v>
+        <v>0.001139046072664639</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.006796</v>
+        <v>3.888315</v>
       </c>
       <c r="N2">
-        <v>12.013592</v>
+        <v>7.77663</v>
       </c>
       <c r="O2">
-        <v>0.1172526637107182</v>
+        <v>0.0892534488424039</v>
       </c>
       <c r="P2">
-        <v>0.08219975604987897</v>
+        <v>0.06242502690155401</v>
       </c>
       <c r="Q2">
-        <v>0.1763635350906667</v>
+        <v>0.1517473253475</v>
       </c>
       <c r="R2">
-        <v>1.058181210544</v>
+        <v>0.60698930139</v>
       </c>
       <c r="S2">
-        <v>0.0008422426003174672</v>
+        <v>0.0001524088851925128</v>
       </c>
       <c r="T2">
-        <v>0.000590452567045459</v>
+        <v>7.110498172819955E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.02936066666666667</v>
+        <v>0.0390265</v>
       </c>
       <c r="H3">
-        <v>0.08808200000000001</v>
+        <v>0.078053</v>
       </c>
       <c r="I3">
-        <v>0.007183142571459352</v>
+        <v>0.001707596593400255</v>
       </c>
       <c r="J3">
-        <v>0.007183142571459351</v>
+        <v>0.001139046072664639</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.744669</v>
       </c>
       <c r="O3">
-        <v>0.03737864813934017</v>
+        <v>0.04395490254845124</v>
       </c>
       <c r="P3">
-        <v>0.0393063448789756</v>
+        <v>0.04611394869828234</v>
       </c>
       <c r="Q3">
-        <v>0.05622243720644445</v>
+        <v>0.07473144157616667</v>
       </c>
       <c r="R3">
-        <v>0.506001934858</v>
+        <v>0.448388649457</v>
       </c>
       <c r="S3">
-        <v>0.0002684961587132943</v>
+        <v>7.505724185497554E-05</v>
       </c>
       <c r="T3">
-        <v>0.0002823430792286329</v>
+        <v>5.252591215983715E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.02936066666666667</v>
+        <v>0.0390265</v>
       </c>
       <c r="H4">
-        <v>0.08808200000000001</v>
+        <v>0.078053</v>
       </c>
       <c r="I4">
-        <v>0.007183142571459352</v>
+        <v>0.001707596593400255</v>
       </c>
       <c r="J4">
-        <v>0.007183142571459351</v>
+        <v>0.001139046072664639</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.26104466666667</v>
+        <v>17.643629</v>
       </c>
       <c r="N4">
-        <v>42.783134</v>
+        <v>52.93088700000001</v>
       </c>
       <c r="O4">
-        <v>0.2783756056413766</v>
+        <v>0.4049966986588931</v>
       </c>
       <c r="P4">
-        <v>0.2927320303410739</v>
+        <v>0.424889964534524</v>
       </c>
       <c r="Q4">
-        <v>0.4187137787764444</v>
+        <v>0.6885690871685</v>
       </c>
       <c r="R4">
-        <v>3.768424008988</v>
+        <v>4.131414523011</v>
       </c>
       <c r="S4">
-        <v>0.001999611663738352</v>
+        <v>0.0006915709829682755</v>
       </c>
       <c r="T4">
-        <v>0.002102735909172699</v>
+        <v>0.0004839692454176675</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.02936066666666667</v>
+        <v>0.0390265</v>
       </c>
       <c r="H5">
-        <v>0.08808200000000001</v>
+        <v>0.078053</v>
       </c>
       <c r="I5">
-        <v>0.007183142571459352</v>
+        <v>0.001707596593400255</v>
       </c>
       <c r="J5">
-        <v>0.007183142571459351</v>
+        <v>0.001139046072664639</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.530533</v>
+        <v>2.2307815</v>
       </c>
       <c r="N5">
-        <v>3.061066</v>
+        <v>4.461563</v>
       </c>
       <c r="O5">
-        <v>0.02987600563547634</v>
+        <v>0.05120597032103393</v>
       </c>
       <c r="P5">
-        <v>0.02094451671511558</v>
+        <v>0.03581412389402325</v>
       </c>
       <c r="Q5">
-        <v>0.04493746923533334</v>
+        <v>0.08705959420975</v>
       </c>
       <c r="R5">
-        <v>0.2696248154120001</v>
+        <v>0.348238376839</v>
       </c>
       <c r="S5">
-        <v>0.0002146036079453496</v>
+        <v>8.743914048195209E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001504474496549887</v>
+        <v>4.0793937167412E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.02936066666666667</v>
+        <v>0.0390265</v>
       </c>
       <c r="H6">
-        <v>0.08808200000000001</v>
+        <v>0.078053</v>
       </c>
       <c r="I6">
-        <v>0.007183142571459352</v>
+        <v>0.001707596593400255</v>
       </c>
       <c r="J6">
-        <v>0.007183142571459351</v>
+        <v>0.001139046072664639</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.986849</v>
+        <v>10.69583933333333</v>
       </c>
       <c r="N6">
-        <v>11.960547</v>
+        <v>32.087518</v>
       </c>
       <c r="O6">
-        <v>0.0778232963234332</v>
+        <v>0.2455152292867831</v>
       </c>
       <c r="P6">
-        <v>0.0818368099751608</v>
+        <v>0.2575748331030406</v>
       </c>
       <c r="Q6">
-        <v>0.1170565445393333</v>
+        <v>0.4174211737423333</v>
       </c>
       <c r="R6">
-        <v>1.053508900854</v>
+        <v>2.504527042454</v>
       </c>
       <c r="S6">
-        <v>0.0005590158328721491</v>
+        <v>0.0004192409691579934</v>
       </c>
       <c r="T6">
-        <v>0.0005878454736450068</v>
+        <v>0.0002933896020632684</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.02936066666666667</v>
+        <v>0.0390265</v>
       </c>
       <c r="H7">
-        <v>0.08808200000000001</v>
+        <v>0.078053</v>
       </c>
       <c r="I7">
-        <v>0.007183142571459352</v>
+        <v>0.001707596593400255</v>
       </c>
       <c r="J7">
-        <v>0.007183142571459351</v>
+        <v>0.001139046072664639</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.52939333333333</v>
+        <v>7.191416666666666</v>
       </c>
       <c r="N7">
-        <v>70.58817999999999</v>
+        <v>21.57425</v>
       </c>
       <c r="O7">
-        <v>0.4592937805496555</v>
+        <v>0.1650737503424347</v>
       </c>
       <c r="P7">
-        <v>0.4829805420397951</v>
+        <v>0.1731821028685757</v>
       </c>
       <c r="Q7">
-        <v>0.6908386745288889</v>
+        <v>0.2806558225416667</v>
       </c>
       <c r="R7">
-        <v>6.21754807076</v>
+        <v>1.68393493525</v>
       </c>
       <c r="S7">
-        <v>0.00329917270787274</v>
+        <v>0.0002818793737445457</v>
       </c>
       <c r="T7">
-        <v>0.003469318092712565</v>
+        <v>0.0001972623941282547</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.927719</v>
+        <v>0.02936066666666666</v>
       </c>
       <c r="H8">
-        <v>5.783157</v>
+        <v>0.08808199999999999</v>
       </c>
       <c r="I8">
-        <v>0.4716200954126058</v>
+        <v>0.001284670016013745</v>
       </c>
       <c r="J8">
-        <v>0.4716200954126058</v>
+        <v>0.00128540166518195</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.006796</v>
+        <v>3.888315</v>
       </c>
       <c r="N8">
-        <v>12.013592</v>
+        <v>7.77663</v>
       </c>
       <c r="O8">
-        <v>0.1172526637107182</v>
+        <v>0.0892534488424039</v>
       </c>
       <c r="P8">
-        <v>0.08219975604987897</v>
+        <v>0.06242502690155401</v>
       </c>
       <c r="Q8">
-        <v>11.579414778324</v>
+        <v>0.11416352061</v>
       </c>
       <c r="R8">
-        <v>69.47648866994399</v>
+        <v>0.68498112366</v>
       </c>
       <c r="S8">
-        <v>0.05529871244663111</v>
+        <v>0.000114661229553653</v>
       </c>
       <c r="T8">
-        <v>0.03876705679113684</v>
+        <v>8.024123352828556E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.927719</v>
+        <v>0.02936066666666666</v>
       </c>
       <c r="H9">
-        <v>5.783157</v>
+        <v>0.08808199999999999</v>
       </c>
       <c r="I9">
-        <v>0.4716200954126058</v>
+        <v>0.001284670016013745</v>
       </c>
       <c r="J9">
-        <v>0.4716200954126058</v>
+        <v>0.00128540166518195</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>5.744669</v>
       </c>
       <c r="O9">
-        <v>0.03737864813934017</v>
+        <v>0.04395490254845124</v>
       </c>
       <c r="P9">
-        <v>0.0393063448789756</v>
+        <v>0.04611394869828234</v>
       </c>
       <c r="Q9">
-        <v>3.691369193337</v>
+        <v>0.05622243720644444</v>
       </c>
       <c r="R9">
-        <v>33.222322740033</v>
+        <v>0.5060019348579999</v>
       </c>
       <c r="S9">
-        <v>0.01762852160186983</v>
+        <v>5.646754536080146E-05</v>
       </c>
       <c r="T9">
-        <v>0.01853766212214326</v>
+        <v>5.927494644488714E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.927719</v>
+        <v>0.02936066666666666</v>
       </c>
       <c r="H10">
-        <v>5.783157</v>
+        <v>0.08808199999999999</v>
       </c>
       <c r="I10">
-        <v>0.4716200954126058</v>
+        <v>0.001284670016013745</v>
       </c>
       <c r="J10">
-        <v>0.4716200954126058</v>
+        <v>0.00128540166518195</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.26104466666667</v>
+        <v>17.643629</v>
       </c>
       <c r="N10">
-        <v>42.783134</v>
+        <v>52.93088700000001</v>
       </c>
       <c r="O10">
-        <v>0.2783756056413766</v>
+        <v>0.4049966986588931</v>
       </c>
       <c r="P10">
-        <v>0.2927320303410739</v>
+        <v>0.424889964534524</v>
       </c>
       <c r="Q10">
-        <v>27.491286763782</v>
+        <v>0.5180287098593332</v>
       </c>
       <c r="R10">
-        <v>247.421580874038</v>
+        <v>4.662258388734</v>
       </c>
       <c r="S10">
-        <v>0.131287529693128</v>
+        <v>0.0005202871153516341</v>
       </c>
       <c r="T10">
-        <v>0.1380583080797831</v>
+        <v>0.0005461542679317769</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>1.927719</v>
+        <v>0.02936066666666666</v>
       </c>
       <c r="H11">
-        <v>5.783157</v>
+        <v>0.08808199999999999</v>
       </c>
       <c r="I11">
-        <v>0.4716200954126058</v>
+        <v>0.001284670016013745</v>
       </c>
       <c r="J11">
-        <v>0.4716200954126058</v>
+        <v>0.00128540166518195</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.530533</v>
+        <v>2.2307815</v>
       </c>
       <c r="N11">
-        <v>3.061066</v>
+        <v>4.461563</v>
       </c>
       <c r="O11">
-        <v>0.02987600563547634</v>
+        <v>0.05120597032103393</v>
       </c>
       <c r="P11">
-        <v>0.02094451671511558</v>
+        <v>0.03581412389402325</v>
       </c>
       <c r="Q11">
-        <v>2.950437544227</v>
+        <v>0.06549723202766666</v>
       </c>
       <c r="R11">
-        <v>17.702625265362</v>
+        <v>0.392983392166</v>
       </c>
       <c r="S11">
-        <v>0.0140901246283509</v>
+        <v>6.578277471232201E-05</v>
       </c>
       <c r="T11">
-        <v>0.009877854971553728</v>
+        <v>4.603553449041015E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.927719</v>
+        <v>0.02936066666666666</v>
       </c>
       <c r="H12">
-        <v>5.783157</v>
+        <v>0.08808199999999999</v>
       </c>
       <c r="I12">
-        <v>0.4716200954126058</v>
+        <v>0.001284670016013745</v>
       </c>
       <c r="J12">
-        <v>0.4716200954126058</v>
+        <v>0.00128540166518195</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.986849</v>
+        <v>10.69583933333333</v>
       </c>
       <c r="N12">
-        <v>11.960547</v>
+        <v>32.087518</v>
       </c>
       <c r="O12">
-        <v>0.0778232963234332</v>
+        <v>0.2455152292867831</v>
       </c>
       <c r="P12">
-        <v>0.0818368099751608</v>
+        <v>0.2575748331030406</v>
       </c>
       <c r="Q12">
-        <v>7.685524567431</v>
+        <v>0.3140369733862222</v>
       </c>
       <c r="R12">
-        <v>69.169721106879</v>
+        <v>2.826332760476</v>
       </c>
       <c r="S12">
-        <v>0.03670303043738106</v>
+        <v>0.00031540605353947</v>
       </c>
       <c r="T12">
-        <v>0.03859588412874863</v>
+        <v>0.0003310871193796113</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.927719</v>
+        <v>0.02936066666666666</v>
       </c>
       <c r="H13">
-        <v>5.783157</v>
+        <v>0.08808199999999999</v>
       </c>
       <c r="I13">
-        <v>0.4716200954126058</v>
+        <v>0.001284670016013745</v>
       </c>
       <c r="J13">
-        <v>0.4716200954126058</v>
+        <v>0.00128540166518195</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.52939333333333</v>
+        <v>7.191416666666666</v>
       </c>
       <c r="N13">
-        <v>70.58817999999999</v>
+        <v>21.57425</v>
       </c>
       <c r="O13">
-        <v>0.4592937805496555</v>
+        <v>0.1650737503424347</v>
       </c>
       <c r="P13">
-        <v>0.4829805420397951</v>
+        <v>0.1731821028685757</v>
       </c>
       <c r="Q13">
-        <v>45.35805858713999</v>
+        <v>0.2111447876111111</v>
       </c>
       <c r="R13">
-        <v>408.22252728426</v>
+        <v>1.9003030885</v>
       </c>
       <c r="S13">
-        <v>0.216612176605245</v>
+        <v>0.0002120652974958646</v>
       </c>
       <c r="T13">
-        <v>0.2277833293192403</v>
+        <v>0.0002226085634069789</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.130360666666667</v>
+        <v>4.393919333333334</v>
       </c>
       <c r="H14">
-        <v>6.391082000000001</v>
+        <v>13.181758</v>
       </c>
       <c r="I14">
-        <v>0.5211967620159349</v>
+        <v>0.1922550493965772</v>
       </c>
       <c r="J14">
-        <v>0.5211967620159349</v>
+        <v>0.1923645430760597</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.006796</v>
+        <v>3.888315</v>
       </c>
       <c r="N14">
-        <v>12.013592</v>
+        <v>7.77663</v>
       </c>
       <c r="O14">
-        <v>0.1172526637107182</v>
+        <v>0.0892534488424039</v>
       </c>
       <c r="P14">
-        <v>0.08219975604987897</v>
+        <v>0.06242502690155401</v>
       </c>
       <c r="Q14">
-        <v>12.79664193109067</v>
+        <v>17.08494245259</v>
       </c>
       <c r="R14">
-        <v>76.779851586544</v>
+        <v>102.50965471554</v>
       </c>
       <c r="S14">
-        <v>0.06111170866376965</v>
+        <v>0.01715942621601124</v>
       </c>
       <c r="T14">
-        <v>0.04284224669169668</v>
+        <v>0.01200836177642817</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,13 +1334,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.130360666666667</v>
+        <v>4.393919333333334</v>
       </c>
       <c r="H15">
-        <v>6.391082000000001</v>
+        <v>13.181758</v>
       </c>
       <c r="I15">
-        <v>0.5211967620159349</v>
+        <v>0.1922550493965772</v>
       </c>
       <c r="J15">
-        <v>0.5211967620159349</v>
+        <v>0.1923645430760597</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>5.744669</v>
       </c>
       <c r="O15">
-        <v>0.03737864813934017</v>
+        <v>0.04395490254845124</v>
       </c>
       <c r="P15">
-        <v>0.0393063448789756</v>
+        <v>0.04611394869828234</v>
       </c>
       <c r="Q15">
-        <v>4.079405626873111</v>
+        <v>8.41387072756689</v>
       </c>
       <c r="R15">
-        <v>36.71465064185801</v>
+        <v>75.724836548102</v>
       </c>
       <c r="S15">
-        <v>0.01948163037875705</v>
+        <v>0.008450551960674232</v>
       </c>
       <c r="T15">
-        <v>0.02048633967760371</v>
+        <v>0.008870688670777942</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.130360666666667</v>
+        <v>4.393919333333334</v>
       </c>
       <c r="H16">
-        <v>6.391082000000001</v>
+        <v>13.181758</v>
       </c>
       <c r="I16">
-        <v>0.5211967620159349</v>
+        <v>0.1922550493965772</v>
       </c>
       <c r="J16">
-        <v>0.5211967620159349</v>
+        <v>0.1923645430760597</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.26104466666667</v>
+        <v>17.643629</v>
       </c>
       <c r="N16">
-        <v>42.783134</v>
+        <v>52.93088700000001</v>
       </c>
       <c r="O16">
-        <v>0.2783756056413766</v>
+        <v>0.4049966986588931</v>
       </c>
       <c r="P16">
-        <v>0.2927320303410739</v>
+        <v>0.424889964534524</v>
       </c>
       <c r="Q16">
-        <v>30.38116862344311</v>
+        <v>77.52468257326068</v>
       </c>
       <c r="R16">
-        <v>273.430517610988</v>
+        <v>697.722143159346</v>
       </c>
       <c r="S16">
-        <v>0.1450884642845103</v>
+        <v>0.07786266030611619</v>
       </c>
       <c r="T16">
-        <v>0.1525709863521181</v>
+        <v>0.08173376388528694</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.130360666666667</v>
+        <v>4.393919333333334</v>
       </c>
       <c r="H17">
-        <v>6.391082000000001</v>
+        <v>13.181758</v>
       </c>
       <c r="I17">
-        <v>0.5211967620159349</v>
+        <v>0.1922550493965772</v>
       </c>
       <c r="J17">
-        <v>0.5211967620159349</v>
+        <v>0.1923645430760597</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.530533</v>
+        <v>2.2307815</v>
       </c>
       <c r="N17">
-        <v>3.061066</v>
+        <v>4.461563</v>
       </c>
       <c r="O17">
-        <v>0.02987600563547634</v>
+        <v>0.05120597032103393</v>
       </c>
       <c r="P17">
-        <v>0.02094451671511558</v>
+        <v>0.03581412389402325</v>
       </c>
       <c r="Q17">
-        <v>3.260587302235334</v>
+        <v>9.801873961292333</v>
       </c>
       <c r="R17">
-        <v>19.563523813412</v>
+        <v>58.811243767754</v>
       </c>
       <c r="S17">
-        <v>0.01557127739918009</v>
+        <v>0.009844606353470045</v>
       </c>
       <c r="T17">
-        <v>0.01091621429390687</v>
+        <v>0.006889367578543176</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,14 +1520,14 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
         <v>3</v>
       </c>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.130360666666667</v>
+        <v>4.393919333333334</v>
       </c>
       <c r="H18">
-        <v>6.391082000000001</v>
+        <v>13.181758</v>
       </c>
       <c r="I18">
-        <v>0.5211967620159349</v>
+        <v>0.1922550493965772</v>
       </c>
       <c r="J18">
-        <v>0.5211967620159349</v>
+        <v>0.1923645430760597</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.986849</v>
+        <v>10.69583933333333</v>
       </c>
       <c r="N18">
-        <v>11.960547</v>
+        <v>32.087518</v>
       </c>
       <c r="O18">
-        <v>0.0778232963234332</v>
+        <v>0.2455152292867831</v>
       </c>
       <c r="P18">
-        <v>0.0818368099751608</v>
+        <v>0.2575748331030406</v>
       </c>
       <c r="Q18">
-        <v>8.493426293539333</v>
+        <v>46.99665523296045</v>
       </c>
       <c r="R18">
-        <v>76.44083664185401</v>
+        <v>422.969897096644</v>
       </c>
       <c r="S18">
-        <v>0.04056125005318</v>
+        <v>0.04720154253414247</v>
       </c>
       <c r="T18">
-        <v>0.04265308037276717</v>
+        <v>0.04954826507775876</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4.393919333333334</v>
+      </c>
+      <c r="H19">
+        <v>13.181758</v>
+      </c>
+      <c r="I19">
+        <v>0.1922550493965772</v>
+      </c>
+      <c r="J19">
+        <v>0.1923645430760597</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>7.191416666666666</v>
+      </c>
+      <c r="N19">
+        <v>21.57425</v>
+      </c>
+      <c r="O19">
+        <v>0.1650737503424347</v>
+      </c>
+      <c r="P19">
+        <v>0.1731821028685757</v>
+      </c>
+      <c r="Q19">
+        <v>31.59850472572222</v>
+      </c>
+      <c r="R19">
+        <v>284.3865425315</v>
+      </c>
+      <c r="S19">
+        <v>0.03173626202616305</v>
+      </c>
+      <c r="T19">
+        <v>0.03331409608726473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>17.14445133333333</v>
+      </c>
+      <c r="H20">
+        <v>51.433354</v>
+      </c>
+      <c r="I20">
+        <v>0.7501519914036991</v>
+      </c>
+      <c r="J20">
+        <v>0.7505792202435541</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.888315</v>
+      </c>
+      <c r="N20">
+        <v>7.77663</v>
+      </c>
+      <c r="O20">
+        <v>0.0892534488424039</v>
+      </c>
+      <c r="P20">
+        <v>0.06242502690155401</v>
+      </c>
+      <c r="Q20">
+        <v>66.66302728616999</v>
+      </c>
+      <c r="R20">
+        <v>399.97816371702</v>
+      </c>
+      <c r="S20">
+        <v>0.06695365238877747</v>
+      </c>
+      <c r="T20">
+        <v>0.04685492801545129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>17.14445133333333</v>
+      </c>
+      <c r="H21">
+        <v>51.433354</v>
+      </c>
+      <c r="I21">
+        <v>0.7501519914036991</v>
+      </c>
+      <c r="J21">
+        <v>0.7505792202435541</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.914889666666667</v>
+      </c>
+      <c r="N21">
+        <v>5.744669</v>
+      </c>
+      <c r="O21">
+        <v>0.04395490254845124</v>
+      </c>
+      <c r="P21">
+        <v>0.04611394869828234</v>
+      </c>
+      <c r="Q21">
+        <v>32.82973269886956</v>
+      </c>
+      <c r="R21">
+        <v>295.467594289826</v>
+      </c>
+      <c r="S21">
+        <v>0.03297285767867623</v>
+      </c>
+      <c r="T21">
+        <v>0.03461217165630801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>17.14445133333333</v>
+      </c>
+      <c r="H22">
+        <v>51.433354</v>
+      </c>
+      <c r="I22">
+        <v>0.7501519914036991</v>
+      </c>
+      <c r="J22">
+        <v>0.7505792202435541</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>17.643629</v>
+      </c>
+      <c r="N22">
+        <v>52.93088700000001</v>
+      </c>
+      <c r="O22">
+        <v>0.4049966986588931</v>
+      </c>
+      <c r="P22">
+        <v>0.424889964534524</v>
+      </c>
+      <c r="Q22">
+        <v>302.4903387338887</v>
+      </c>
+      <c r="R22">
+        <v>2722.413048604998</v>
+      </c>
+      <c r="S22">
+        <v>0.3038090800108925</v>
+      </c>
+      <c r="T22">
+        <v>0.3189135782696344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>17.14445133333333</v>
+      </c>
+      <c r="H23">
+        <v>51.433354</v>
+      </c>
+      <c r="I23">
+        <v>0.7501519914036991</v>
+      </c>
+      <c r="J23">
+        <v>0.7505792202435541</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.2307815</v>
+      </c>
+      <c r="N23">
+        <v>4.461563</v>
+      </c>
+      <c r="O23">
+        <v>0.05120597032103393</v>
+      </c>
+      <c r="P23">
+        <v>0.03581412389402325</v>
+      </c>
+      <c r="Q23">
+        <v>38.24552486205033</v>
+      </c>
+      <c r="R23">
+        <v>229.473149172302</v>
+      </c>
+      <c r="S23">
+        <v>0.03841226060808232</v>
+      </c>
+      <c r="T23">
+        <v>0.02688133718608201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>17.14445133333333</v>
+      </c>
+      <c r="H24">
+        <v>51.433354</v>
+      </c>
+      <c r="I24">
+        <v>0.7501519914036991</v>
+      </c>
+      <c r="J24">
+        <v>0.7505792202435541</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>10.69583933333333</v>
+      </c>
+      <c r="N24">
+        <v>32.087518</v>
+      </c>
+      <c r="O24">
+        <v>0.2455152292867831</v>
+      </c>
+      <c r="P24">
+        <v>0.2575748331030406</v>
+      </c>
+      <c r="Q24">
+        <v>183.3742969194858</v>
+      </c>
+      <c r="R24">
+        <v>1650.368672275372</v>
+      </c>
+      <c r="S24">
+        <v>0.1841737381694162</v>
+      </c>
+      <c r="T24">
+        <v>0.1933303173848438</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>17.14445133333333</v>
+      </c>
+      <c r="H25">
+        <v>51.433354</v>
+      </c>
+      <c r="I25">
+        <v>0.7501519914036991</v>
+      </c>
+      <c r="J25">
+        <v>0.7505792202435541</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>7.191416666666666</v>
+      </c>
+      <c r="N25">
+        <v>21.57425</v>
+      </c>
+      <c r="O25">
+        <v>0.1650737503424347</v>
+      </c>
+      <c r="P25">
+        <v>0.1731821028685757</v>
+      </c>
+      <c r="Q25">
+        <v>123.2928930593889</v>
+      </c>
+      <c r="R25">
+        <v>1109.6360375345</v>
+      </c>
+      <c r="S25">
+        <v>0.1238304025478545</v>
+      </c>
+      <c r="T25">
+        <v>0.1299868877312345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.247879</v>
+      </c>
+      <c r="H26">
+        <v>3.743637000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.0546006925903096</v>
+      </c>
+      <c r="J26">
+        <v>0.05463178894253947</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.888315</v>
+      </c>
+      <c r="N26">
+        <v>7.77663</v>
+      </c>
+      <c r="O26">
+        <v>0.0892534488424039</v>
+      </c>
+      <c r="P26">
+        <v>0.06242502690155401</v>
+      </c>
+      <c r="Q26">
+        <v>4.852146633885001</v>
+      </c>
+      <c r="R26">
+        <v>29.11287980331</v>
+      </c>
+      <c r="S26">
+        <v>0.004873300122869019</v>
+      </c>
+      <c r="T26">
+        <v>0.003410390894418047</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.247879</v>
+      </c>
+      <c r="H27">
+        <v>3.743637000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.0546006925903096</v>
+      </c>
+      <c r="J27">
+        <v>0.05463178894253947</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.914889666666667</v>
+      </c>
+      <c r="N27">
+        <v>5.744669</v>
+      </c>
+      <c r="O27">
+        <v>0.04395490254845124</v>
+      </c>
+      <c r="P27">
+        <v>0.04611394869828234</v>
+      </c>
+      <c r="Q27">
+        <v>2.389550602350333</v>
+      </c>
+      <c r="R27">
+        <v>21.505955421153</v>
+      </c>
+      <c r="S27">
+        <v>0.002399968121885002</v>
+      </c>
+      <c r="T27">
+        <v>0.002519287512591653</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>2.130360666666667</v>
-      </c>
-      <c r="H19">
-        <v>6.391082000000001</v>
-      </c>
-      <c r="I19">
-        <v>0.5211967620159349</v>
-      </c>
-      <c r="J19">
-        <v>0.5211967620159349</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>23.52939333333333</v>
-      </c>
-      <c r="N19">
-        <v>70.58817999999999</v>
-      </c>
-      <c r="O19">
-        <v>0.4592937805496555</v>
-      </c>
-      <c r="P19">
-        <v>0.4829805420397951</v>
-      </c>
-      <c r="Q19">
-        <v>50.12609406786222</v>
-      </c>
-      <c r="R19">
-        <v>451.13484661076</v>
-      </c>
-      <c r="S19">
-        <v>0.2393824312365379</v>
-      </c>
-      <c r="T19">
-        <v>0.2517278946278423</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.247879</v>
+      </c>
+      <c r="H28">
+        <v>3.743637000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.0546006925903096</v>
+      </c>
+      <c r="J28">
+        <v>0.05463178894253947</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>17.643629</v>
+      </c>
+      <c r="N28">
+        <v>52.93088700000001</v>
+      </c>
+      <c r="O28">
+        <v>0.4049966986588931</v>
+      </c>
+      <c r="P28">
+        <v>0.424889964534524</v>
+      </c>
+      <c r="Q28">
+        <v>22.017114112891</v>
+      </c>
+      <c r="R28">
+        <v>198.1540270160191</v>
+      </c>
+      <c r="S28">
+        <v>0.02211310024356447</v>
+      </c>
+      <c r="T28">
+        <v>0.0232124988662532</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.247879</v>
+      </c>
+      <c r="H29">
+        <v>3.743637000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.0546006925903096</v>
+      </c>
+      <c r="J29">
+        <v>0.05463178894253947</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>2.2307815</v>
+      </c>
+      <c r="N29">
+        <v>4.461563</v>
+      </c>
+      <c r="O29">
+        <v>0.05120597032103393</v>
+      </c>
+      <c r="P29">
+        <v>0.03581412389402325</v>
+      </c>
+      <c r="Q29">
+        <v>2.783745387438501</v>
+      </c>
+      <c r="R29">
+        <v>16.702472324631</v>
+      </c>
+      <c r="S29">
+        <v>0.00279588144428729</v>
+      </c>
+      <c r="T29">
+        <v>0.001956589657740238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.247879</v>
+      </c>
+      <c r="H30">
+        <v>3.743637000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.0546006925903096</v>
+      </c>
+      <c r="J30">
+        <v>0.05463178894253947</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>10.69583933333333</v>
+      </c>
+      <c r="N30">
+        <v>32.087518</v>
+      </c>
+      <c r="O30">
+        <v>0.2455152292867831</v>
+      </c>
+      <c r="P30">
+        <v>0.2575748331030406</v>
+      </c>
+      <c r="Q30">
+        <v>13.34711329144067</v>
+      </c>
+      <c r="R30">
+        <v>120.124019622966</v>
+      </c>
+      <c r="S30">
+        <v>0.01340530156052702</v>
+      </c>
+      <c r="T30">
+        <v>0.01407177391899514</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.247879</v>
+      </c>
+      <c r="H31">
+        <v>3.743637000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.0546006925903096</v>
+      </c>
+      <c r="J31">
+        <v>0.05463178894253947</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>7.191416666666666</v>
+      </c>
+      <c r="N31">
+        <v>21.57425</v>
+      </c>
+      <c r="O31">
+        <v>0.1650737503424347</v>
+      </c>
+      <c r="P31">
+        <v>0.1731821028685757</v>
+      </c>
+      <c r="Q31">
+        <v>8.974017838583334</v>
+      </c>
+      <c r="R31">
+        <v>80.76616054725001</v>
+      </c>
+      <c r="S31">
+        <v>0.009013141097176791</v>
+      </c>
+      <c r="T31">
+        <v>0.009461248092541185</v>
       </c>
     </row>
   </sheetData>
